--- a/biology/Botanique/Elymus_athericus/Elymus_athericus.xlsx
+++ b/biology/Botanique/Elymus_athericus/Elymus_athericus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Elymus athericus, le chiendent littoral ou chiendent piquant, est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Poaceae, originaire d'Europe, d'Asie occidentale et d'Afrique du Nord.
 Ce sont des plantes herbacées vivaces, rhizomateuses, aux tiges (chaumes) dressées ou géniculées ascendantes, de 20 à 120 cm de long, et aux inflorescence en racèmes.
-Cette espèce peut se révéler envahissante dans certaines circonstances. C'est le cas par exemple dans les marais salés de la baie du Mont-Saint-Michel[2]. 
+Cette espèce peut se révéler envahissante dans certaines circonstances. C'est le cas par exemple dans les marais salés de la baie du Mont-Saint-Michel. 
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle mesure en 40 cm et 1 m de hauteur[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle mesure en 40 cm et 1 m de hauteur.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (20 juillet 2017)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (20 juillet 2017) :
 Agropyron athericum (Link) Samp.
 Agropyron concinnum De Not. ex Parl.
 Agropyron littorale Dumort., nom. superfl. 
